--- a/Hystrix_metadata.xlsx
+++ b/Hystrix_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="0" windowWidth="36200" windowHeight="20620" tabRatio="500"/>
+    <workbookView xWindow="1940" yWindow="0" windowWidth="28100" windowHeight="18780" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset descriptions" sheetId="2" r:id="rId1"/>
@@ -21,17 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="70">
-  <si>
-    <t>drawer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="69">
   <si>
     <t>inventory1</t>
   </si>
   <si>
-    <t>inventory2</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>Dataset name</t>
   </si>
   <si>
-    <t>hh</t>
-  </si>
-  <si>
     <t>aa</t>
   </si>
   <si>
@@ -164,12 +155,6 @@
     <t>Biological gender</t>
   </si>
   <si>
-    <t>Location in the museal collection of origin</t>
-  </si>
-  <si>
-    <t>Unique identifier(s) from the museal collection of origin</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -200,9 +185,6 @@
     <t>Dataset with species, origin, and morphometric information for each specimen.</t>
   </si>
   <si>
-    <t>Same as hh, plus latitude/longitude of origin and cranial volume estimates.</t>
-  </si>
-  <si>
     <t>A subset of aa. It excludes an outlier and specimens with overly vague/dubious geographic origin.</t>
   </si>
   <si>
@@ -231,6 +213,21 @@
   </si>
   <si>
     <t>Whether the geographic origin is too vague/dubious for the specimen to be included in geo-referenced analyses.</t>
+  </si>
+  <si>
+    <t>hhh</t>
+  </si>
+  <si>
+    <t>Same as hh, plus reconstructed latitude/longitude of origin and cranial volume estimates.</t>
+  </si>
+  <si>
+    <t>Catalogue number from the museal collection of origin</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Sample source (institution, museum, private collection…)</t>
   </si>
 </sst>
 </file>
@@ -243,6 +240,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,8 +293,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -372,7 +374,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -403,6 +405,8 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -433,6 +437,8 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -807,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -821,57 +827,57 @@
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -887,11 +893,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -905,1771 +911,1758 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>53</v>
+        <v>20</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>53</v>
+        <v>7</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>53</v>
+        <v>5</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>53</v>
+        <v>2</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D108" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>65</v>
+        <v>6</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>68</v>
+        <v>16</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D126">
-    <sortCondition ref="C2:C126"/>
+  <sortState ref="A2:D125">
+    <sortCondition descending="1" ref="B2:B125"/>
+    <sortCondition ref="C2:C125"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2685,7 +2678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>

--- a/Hystrix_metadata.xlsx
+++ b/Hystrix_metadata.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="0" windowWidth="28100" windowHeight="18780" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2380" yWindow="0" windowWidth="26860" windowHeight="15180" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset descriptions" sheetId="2" r:id="rId1"/>
     <sheet name="Column descriptions" sheetId="1" r:id="rId2"/>
     <sheet name="Reference figure" sheetId="3" r:id="rId3"/>
+    <sheet name="Authors" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="109">
   <si>
     <t>inventory1</t>
   </si>
@@ -228,19 +229,139 @@
   </si>
   <si>
     <t>Sample source (institution, museum, private collection…)</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>condylobasal.length</t>
+  </si>
+  <si>
+    <t>Length.of.the.spine</t>
+  </si>
+  <si>
+    <t>Length of the spinal column. Units: cm</t>
+  </si>
+  <si>
+    <t>Ancillotto</t>
+  </si>
+  <si>
+    <t>Lovari</t>
+  </si>
+  <si>
+    <t>Russo</t>
+  </si>
+  <si>
+    <t>Nerva</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>Motro</t>
+  </si>
+  <si>
+    <t>Di Bari</t>
+  </si>
+  <si>
+    <t>Plebani</t>
+  </si>
+  <si>
+    <t>Mori</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>First name(s)</t>
+  </si>
+  <si>
+    <t>ORCID</t>
+  </si>
+  <si>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <t>Consiglio Nazionale delle Ricerche, Istituto di Ricerca sugli Ecosistemi Terrestri, Via Madonna del Piano 10, 50019, Sesto Fiorentino (FI), Italy</t>
+  </si>
+  <si>
+    <t>0000-0001-8108-7950</t>
+  </si>
+  <si>
+    <t>Emiliano</t>
+  </si>
+  <si>
+    <t>Dipartimento di Scienze Biologiche, Geologiche e Ambientali – Università di Catania, Via Androne 81, 95131, Catania, Italia</t>
+  </si>
+  <si>
+    <t>Pietro</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Danilo</t>
+  </si>
+  <si>
+    <t>Wildlife Research Unit, Dipartimento di Agraria, Università degli Studi di Napoli Federico II</t>
+  </si>
+  <si>
+    <t>0000-0002-1934-7130</t>
+  </si>
+  <si>
+    <t>Walid Fathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Biological and Geological Sciences, Faculty of Education, Ain Shams University, Roxy, Cairo, Egypt </t>
+  </si>
+  <si>
+    <t>Yoav</t>
+  </si>
+  <si>
+    <t>Vertebrate and Snail Division, Ministry of Agriculture and Rural Development, Rishon Leziyyon, Israel</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School of Life Sciences, University of KwaZulu-Natal, Pietermaritzburg, South Africa </t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>0000-0001-5009-5798</t>
+  </si>
+  <si>
+    <t>Research Centre for Viticulture and Enology, CREA, Conegliano Veneto (Treviso), Italy &amp; Institute for Sustainable Plant Protection, Torino, Italy</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Wildlife Research Unit, Dipartimento di Agraria, Universit a degli Studi di Napoli Federico II, Portici, Italy</t>
+  </si>
+  <si>
+    <t>Sandro</t>
+  </si>
+  <si>
+    <t>Unità di Ricerca in Ecologia Comportamentale, Etologia e Gestione della Fauna, Dipartimento di Scienze della Vita, Università di Siena, Siena, Italy</t>
+  </si>
+  <si>
+    <t>0000-0001-7064-6550</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,6 +396,10 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -293,7 +418,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -359,8 +484,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -373,8 +516,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -407,6 +554,15 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -439,6 +595,15 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -893,11 +1058,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -2657,6 +2822,48 @@
       </c>
       <c r="D125" s="2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2692,4 +2899,172 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="140.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Hystrix_metadata.xlsx
+++ b/Hystrix_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="0" windowWidth="26860" windowHeight="15180" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="38280" windowHeight="17020" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset descriptions" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="114">
   <si>
     <t>inventory1</t>
   </si>
@@ -219,9 +219,6 @@
     <t>hhh</t>
   </si>
   <si>
-    <t>Same as hh, plus reconstructed latitude/longitude of origin and cranial volume estimates.</t>
-  </si>
-  <si>
     <t>Catalogue number from the museal collection of origin</t>
   </si>
   <si>
@@ -297,9 +294,6 @@
     <t>Pietro</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Danilo</t>
   </si>
   <si>
@@ -349,6 +343,27 @@
   </si>
   <si>
     <t>0000-0001-7064-6550</t>
+  </si>
+  <si>
+    <t>0000-0003-2028-4568</t>
+  </si>
+  <si>
+    <t>0000-0002-9945-0268</t>
+  </si>
+  <si>
+    <t>Same as hhh, plus reconstructed latitude/longitude of origin and cranial volume estimates.</t>
+  </si>
+  <si>
+    <t>0000-0002-8774-0671</t>
+  </si>
+  <si>
+    <t>0000-0001-5817-858X</t>
+  </si>
+  <si>
+    <t>0000-0003-3517-5487</t>
+  </si>
+  <si>
+    <t>These data are published and available at http://doi.org/10.5281/zenodo.4903784. They are made available here as well for practicality.</t>
   </si>
 </sst>
 </file>
@@ -361,7 +376,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,8 +432,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -521,7 +541,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -563,6 +583,9 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -604,6 +627,9 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -976,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -987,10 +1013,11 @@
     <col min="1" max="1" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="144" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="135.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1">
+    <row r="1" spans="1:4" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -1000,8 +1027,11 @@
       <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1011,8 +1041,11 @@
       <c r="C2" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1020,10 +1053,13 @@
         <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1033,8 +1069,11 @@
       <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1043,6 +1082,9 @@
       </c>
       <c r="C5" s="3" t="s">
         <v>55</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1060,9 +1102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1236,10 +1278,10 @@
         <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1267,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2829,7 +2871,7 @@
         <v>45</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>1</v>
@@ -2843,10 +2885,10 @@
         <v>45</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>48</v>
@@ -2857,13 +2899,13 @@
         <v>45</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2948,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -2920,142 +2962,142 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
